--- a/patient_data/patient_73.xlsx
+++ b/patient_data/patient_73.xlsx
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1075,25 +1075,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1235,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1884,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -1961,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2331,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
